--- a/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CopyingWorksheets.xlsx
@@ -807,16 +807,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.80001" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.733194" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.495875" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.246332" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.098975" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.140453" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.940835" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.622326" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.20872" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.157732" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.991763" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.187581" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="17.704829" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.653648" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="14.737877" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="14.684175" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -978,16 +978,16 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="15.80001" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.733194" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.495875" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.246332" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.098975" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.140453" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.940835" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.622326" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.20872" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.157732" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.991763" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.187581" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="17.704829" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="17.653648" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="14.737877" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="14.684175" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:11">
@@ -1156,11 +1156,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.096636" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.114759" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.781075" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.246332" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.534509" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.98655" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.014849" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.49392" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.157732" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.438794" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">
